--- a/DataBase/Datas/Friends.xlsx
+++ b/DataBase/Datas/Friends.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DD55A5-8DC9-4E2B-8745-6E6F9C0D20F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D9389D-1B6A-45E2-A351-A84EC7474A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -199,6 +199,10 @@
   </si>
   <si>
     <t>SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗精灵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +572,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -810,7 +814,7 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>41</v>
